--- a/网鱼计费系统.xlsx
+++ b/网鱼计费系统.xlsx
@@ -22,7 +22,7 @@
     <definedName name="服务门店">浙江杭州三墩地铁站店!$B$12</definedName>
     <definedName name="会员等级">浙江杭州三墩地铁站店!$G$11</definedName>
     <definedName name="会员折扣">浙江杭州三墩地铁站店!$G$12</definedName>
-    <definedName name="卡上金额">浙江杭州三墩地铁站店!$B$19</definedName>
+    <definedName name="卡上余额">浙江杭州三墩地铁站店!$B$19</definedName>
     <definedName name="区域费率">浙江杭州三墩地铁站店!$E$12</definedName>
     <definedName name="区域类型">浙江杭州三墩地铁站店!$E$11</definedName>
     <definedName name="上机时间">浙江杭州三墩地铁站店!$B$14</definedName>
@@ -93,10 +93,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>卡上金额</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>用户姓名</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -169,6 +165,10 @@
   </si>
   <si>
     <t>总金额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卡上余额</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -286,6 +286,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -293,9 +296,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -597,49 +597,49 @@
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" s="14"/>
+      <c r="B1" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="15"/>
       <c r="D1" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="G1" s="2">
         <v>124.3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="4">
         <v>0.1</v>
       </c>
       <c r="D3" s="4"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -666,24 +666,24 @@
       </c>
       <c r="B6" s="18"/>
       <c r="C6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="18"/>
       <c r="C7" s="1">
@@ -704,7 +704,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="18"/>
       <c r="C8" s="1">
@@ -725,7 +725,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9" s="18"/>
       <c r="C9" s="1">
@@ -746,7 +746,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="18">
         <v>2372</v>
@@ -756,23 +756,23 @@
         <v>7</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>5</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="16"/>
+      <c r="B12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="17"/>
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
@@ -792,14 +792,14 @@
       <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="16">
         <v>45448.397974537038</v>
       </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="10">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G15" s="11">
         <v>0</v>
@@ -828,15 +828,15 @@
       <c r="A16" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="16" t="str">
+      <c r="B16" s="17" t="str">
         <f>CONCATENATE(TEXT(DATE(YEAR(上机时间)+上机时长_年,MONTH(上机时间)+上机时长_月,DAY(上机时间)+上机时长_日),"yyyy-mm-dd")," ",TEXT(TIME(HOUR(上机时间)+上机时长_时,MINUTE(上机时间)+上机时长_分,SECOND(上机时间)+上机时长_秒),"hh:mm:ss"))</f>
-        <v>2024-06-05 09:43:05</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
+        <v>2024-06-05 09:47:05</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
@@ -845,29 +845,29 @@
       <c r="A18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="17">
+      <c r="B18" s="14">
         <f>(1+服务费率)*_xlfn.CEILING.MATH(TEXT(下机时间-上机时间,"[ss]")/3600*区域费率*会员折扣)</f>
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C18" s="17"/>
-      <c r="D18" s="17"/>
-      <c r="E18" s="17"/>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B19" s="17">
+        <v>31</v>
+      </c>
+      <c r="B19" s="14">
         <f>总金额-本次消费</f>
-        <v>123.2</v>
-      </c>
-      <c r="C19" s="17"/>
-      <c r="D19" s="17"/>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+        <v>122.1</v>
+      </c>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="4"/>

--- a/网鱼计费系统.xlsx
+++ b/网鱼计费系统.xlsx
@@ -17,9 +17,9 @@
   <definedNames>
     <definedName name="本次消费">浙江杭州三墩地铁站店!$B$18</definedName>
     <definedName name="当前费率">浙江杭州三墩地铁站店!#REF!</definedName>
-    <definedName name="服务编号">浙江杭州三墩地铁站店!$B$11</definedName>
+    <definedName name="服务编号">浙江杭州三墩地铁站店!$B$12</definedName>
     <definedName name="服务费率">浙江杭州三墩地铁站店!$C$3</definedName>
-    <definedName name="服务门店">浙江杭州三墩地铁站店!$B$12</definedName>
+    <definedName name="服务门店">浙江杭州三墩地铁站店!$B$11</definedName>
     <definedName name="会员等级">浙江杭州三墩地铁站店!$G$11</definedName>
     <definedName name="会员折扣">浙江杭州三墩地铁站店!$G$12</definedName>
     <definedName name="卡上余额">浙江杭州三墩地铁站店!$B$19</definedName>
@@ -745,13 +745,13 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="18">
-        <v>2372</v>
-      </c>
-      <c r="C11" s="18"/>
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="17"/>
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
@@ -766,13 +766,13 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="17"/>
+      <c r="A12" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="18">
+        <v>2372</v>
+      </c>
+      <c r="C12" s="18"/>
       <c r="D12" s="1" t="s">
         <v>8</v>
       </c>
@@ -880,8 +880,8 @@
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B16:G16"/>
     <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B11:C11"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>

--- a/网鱼计费系统.xlsx
+++ b/网鱼计费系统.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\own-pypxeserver\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -15,14 +15,15 @@
     <sheet name="浙江杭州三墩地铁站店" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="本次消费">浙江杭州三墩地铁站店!$B$18</definedName>
+    <definedName name="本次消费">浙江杭州三墩地铁站店!$B$19</definedName>
     <definedName name="当前费率">浙江杭州三墩地铁站店!#REF!</definedName>
     <definedName name="服务编号">浙江杭州三墩地铁站店!$B$12</definedName>
     <definedName name="服务费率">浙江杭州三墩地铁站店!$C$3</definedName>
     <definedName name="服务门店">浙江杭州三墩地铁站店!$B$11</definedName>
     <definedName name="会员等级">浙江杭州三墩地铁站店!$G$11</definedName>
     <definedName name="会员折扣">浙江杭州三墩地铁站店!$G$12</definedName>
-    <definedName name="卡上余额">浙江杭州三墩地铁站店!$B$19</definedName>
+    <definedName name="卡上余额">浙江杭州三墩地铁站店!$D$19</definedName>
+    <definedName name="平台服务费">浙江杭州三墩地铁站店!$D$18</definedName>
     <definedName name="区域费率">浙江杭州三墩地铁站店!$E$12</definedName>
     <definedName name="区域类型">浙江杭州三墩地铁站店!$E$11</definedName>
     <definedName name="上机时间">浙江杭州三墩地铁站店!$B$14</definedName>
@@ -32,9 +33,11 @@
     <definedName name="上机时长_日">浙江杭州三墩地铁站店!$D$15</definedName>
     <definedName name="上机时长_时">浙江杭州三墩地铁站店!$E$15</definedName>
     <definedName name="上机时长_月">浙江杭州三墩地铁站店!$C$15</definedName>
+    <definedName name="上网费用">浙江杭州三墩地铁站店!$B$18</definedName>
     <definedName name="下机时间">浙江杭州三墩地铁站店!$B$16</definedName>
     <definedName name="用户卡号">浙江杭州三墩地铁站店!$B$1</definedName>
     <definedName name="用户姓名">浙江杭州三墩地铁站店!$E$1</definedName>
+    <definedName name="鱼乐卡权益">浙江杭州三墩地铁站店!$F$18</definedName>
     <definedName name="总金额">浙江杭州三墩地铁站店!$G$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -47,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>上机时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -169,6 +172,18 @@
   </si>
   <si>
     <t>卡上余额</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>上网费用</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平台服务费</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼乐卡权益</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -247,58 +262,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -588,298 +603,311 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="9" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="1"/>
+    <col min="1" max="5" width="9" style="11"/>
+    <col min="6" max="7" width="9" style="11" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="11"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="13"/>
+      <c r="D1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="G1" s="2">
-        <v>124.3</v>
+      <c r="G1" s="9">
+        <v>100.22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="4">
+      <c r="B3" s="15"/>
+      <c r="C3" s="1">
         <v>0.1</v>
       </c>
-      <c r="D3" s="4"/>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="1" t="s">
+      <c r="B4" s="15"/>
+      <c r="C4" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="F4" s="11" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="12">
+      <c r="B5" s="16"/>
+      <c r="C5" s="8">
         <v>1</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="8">
         <v>0.95</v>
       </c>
-      <c r="E5" s="12">
+      <c r="E5" s="8">
         <v>0.92</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="8">
         <v>0.88</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="1" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="F6" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="1">
+      <c r="B7" s="16"/>
+      <c r="C7" s="11">
         <v>14</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D7" s="11">
         <v>20</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" s="11">
         <v>24</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="11">
         <v>28</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="11">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="1">
+      <c r="B8" s="16"/>
+      <c r="C8" s="11">
         <v>6</v>
       </c>
-      <c r="D8" s="1">
+      <c r="D8" s="11">
         <v>9</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" s="11">
         <v>11</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="11">
         <v>13</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="11">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="1">
+      <c r="B9" s="16"/>
+      <c r="C9" s="11">
         <v>7</v>
       </c>
-      <c r="D9" s="1">
+      <c r="D9" s="11">
         <v>10</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="11">
         <v>12</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="11">
         <v>15</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="11">
         <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="1" t="s">
+      <c r="C11" s="15"/>
+      <c r="D11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="F11" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="16">
         <v>2372</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="1" t="s">
+      <c r="C12" s="16"/>
+      <c r="D12" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" s="11">
         <f>IF(OR(WEEKDAY(下机时间)-1=5,WEEKDAY(下机时间)-1=6,WEEKDAY(下机时间)-1=0),IF(会员等级="普通",HLOOKUP(区域类型,C6:G9,2,0),HLOOKUP(区域类型,C6:G9,4,0)),IF(会员等级="普通",HLOOKUP(区域类型,C6:G9,2,0),HLOOKUP(区域类型,C6:G9,3,0)))</f>
         <v>6</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="F12" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="1">
         <f>HLOOKUP(会员等级,C4:F5,2,0)</f>
         <v>0.95</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="16">
-        <v>45448.397974537038</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="B14" s="14">
+        <v>45449.764814814815</v>
+      </c>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="2">
         <v>0</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <v>0</v>
       </c>
-      <c r="D15" s="8">
+      <c r="D15" s="4">
         <v>0</v>
       </c>
-      <c r="E15" s="9">
-        <v>0</v>
-      </c>
-      <c r="F15" s="10">
-        <v>14</v>
-      </c>
-      <c r="G15" s="11">
-        <v>0</v>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>17</v>
+      </c>
+      <c r="G15" s="7">
+        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="17" t="str">
+      <c r="B16" s="15" t="str">
         <f>CONCATENATE(TEXT(DATE(YEAR(上机时间)+上机时长_年,MONTH(上机时间)+上机时长_月,DAY(上机时间)+上机时长_日),"yyyy-mm-dd")," ",TEXT(TIME(HOUR(上机时间)+上机时长_时,MINUTE(上机时间)+上机时长_分,SECOND(上机时间)+上机时长_秒),"hh:mm:ss"))</f>
-        <v>2024-06-05 09:47:05</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
+        <v>2024-06-06 19:39:19</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="4"/>
+      <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="9">
+        <f>TEXT(下机时间-上机时间,"[ss]")/3600*区域费率+服务费率</f>
+        <v>7.8983333333333334</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="9">
+        <f>上网费用*服务费率</f>
+        <v>0.78983333333333339</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="18">
+        <f>-(上网费用-(上网费用*会员折扣))</f>
+        <v>-0.39491666666666703</v>
+      </c>
+      <c r="G18" s="17"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="14">
-        <f>(1+服务费率)*_xlfn.CEILING.MATH(TEXT(下机时间-上机时间,"[ss]")/3600*区域费率*会员折扣)</f>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="13" t="s">
+      <c r="B19" s="9">
+        <f>上网费用+平台服务费+鱼乐卡权益</f>
+        <v>8.2932500000000005</v>
+      </c>
+      <c r="C19" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="14">
+      <c r="D19" s="9">
         <f>总金额-本次消费</f>
-        <v>122.1</v>
-      </c>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+        <v>91.926749999999998</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="4"/>
+      <c r="B21" s="1"/>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
-  <mergeCells count="14">
-    <mergeCell ref="B19:G19"/>
+  <mergeCells count="12">
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B18:G18"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="A3:B3"/>

--- a/网鱼计费系统.xlsx
+++ b/网鱼计费系统.xlsx
@@ -20,8 +20,6 @@
     <definedName name="服务编号">浙江杭州三墩地铁站店!$B$12</definedName>
     <definedName name="服务费率">浙江杭州三墩地铁站店!$C$3</definedName>
     <definedName name="服务门店">浙江杭州三墩地铁站店!$B$11</definedName>
-    <definedName name="会员等级">浙江杭州三墩地铁站店!$G$11</definedName>
-    <definedName name="会员折扣">浙江杭州三墩地铁站店!$G$12</definedName>
     <definedName name="卡上余额">浙江杭州三墩地铁站店!$D$19</definedName>
     <definedName name="平台服务费">浙江杭州三墩地铁站店!$D$18</definedName>
     <definedName name="区域费率">浙江杭州三墩地铁站店!$E$12</definedName>
@@ -37,7 +35,9 @@
     <definedName name="下机时间">浙江杭州三墩地铁站店!$B$16</definedName>
     <definedName name="用户卡号">浙江杭州三墩地铁站店!$B$1</definedName>
     <definedName name="用户姓名">浙江杭州三墩地铁站店!$E$1</definedName>
+    <definedName name="鱼乐卡等级">浙江杭州三墩地铁站店!$G$11</definedName>
     <definedName name="鱼乐卡权益">浙江杭州三墩地铁站店!$F$18</definedName>
+    <definedName name="鱼乐卡折扣">浙江杭州三墩地铁站店!$G$12</definedName>
     <definedName name="总金额">浙江杭州三墩地铁站店!$G$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -72,14 +72,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>会员等级</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>会员折扣</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>区域类型</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -108,10 +100,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>区域费率_会员_平时</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>区域费率_普通_全时</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -125,10 +113,6 @@
     <t>黄金</t>
   </si>
   <si>
-    <t>区域费率_会员_假期</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>黄金</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -184,6 +168,22 @@
   </si>
   <si>
     <t>鱼乐卡权益</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼乐卡等级</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼乐卡折扣</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域费率_高级_平时</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>区域费率_高级_假期</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -298,6 +298,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -308,12 +314,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -610,58 +610,58 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="13"/>
+        <v>8</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="15"/>
       <c r="D1" s="10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E1" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="G1" s="9">
-        <v>100.22</v>
+        <v>91.51</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
+      <c r="B3" s="17"/>
       <c r="C3" s="1">
         <v>0.1</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="15"/>
+      <c r="A4" s="17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" s="17"/>
       <c r="C4" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="16"/>
+      <c r="A5" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" s="18"/>
       <c r="C5" s="8">
         <v>1</v>
       </c>
@@ -676,31 +676,31 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="16"/>
+      <c r="A6" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="18"/>
       <c r="C6" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="11" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="11" t="s">
-        <v>27</v>
-      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="16"/>
+      <c r="A7" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="18"/>
       <c r="C7" s="11">
         <v>14</v>
       </c>
@@ -718,10 +718,10 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="16"/>
+      <c r="A8" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="18"/>
       <c r="C8" s="11">
         <v>6</v>
       </c>
@@ -739,10 +739,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="16"/>
+      <c r="A9" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" s="18"/>
       <c r="C9" s="11">
         <v>7</v>
       </c>
@@ -761,45 +761,45 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="15"/>
+        <v>7</v>
+      </c>
+      <c r="B11" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="17"/>
       <c r="D11" s="11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B12" s="16">
+        <v>10</v>
+      </c>
+      <c r="B12" s="18">
         <v>2372</v>
       </c>
-      <c r="C12" s="16"/>
+      <c r="C12" s="18"/>
       <c r="D12" s="11" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E12" s="11">
-        <f>IF(OR(WEEKDAY(下机时间)-1=5,WEEKDAY(下机时间)-1=6,WEEKDAY(下机时间)-1=0),IF(会员等级="普通",HLOOKUP(区域类型,C6:G9,2,0),HLOOKUP(区域类型,C6:G9,4,0)),IF(会员等级="普通",HLOOKUP(区域类型,C6:G9,2,0),HLOOKUP(区域类型,C6:G9,3,0)))</f>
-        <v>6</v>
+        <f>IF(OR(WEEKDAY(下机时间)-1=5,WEEKDAY(下机时间)-1=6,WEEKDAY(下机时间)-1=0),IF(鱼乐卡等级="普通",HLOOKUP(区域类型,C6:G9,2,0),HLOOKUP(区域类型,C6:G9,4,0)),IF(鱼乐卡等级="普通",HLOOKUP(区域类型,C6:G9,2,0),HLOOKUP(区域类型,C6:G9,3,0)))</f>
+        <v>7</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1">
-        <f>HLOOKUP(会员等级,C4:F5,2,0)</f>
+        <f>HLOOKUP(鱼乐卡等级,C4:F5,2,0)</f>
         <v>0.95</v>
       </c>
     </row>
@@ -807,14 +807,14 @@
       <c r="A14" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="14">
-        <v>45449.764814814815</v>
-      </c>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+      <c r="B14" s="16">
+        <v>45450.363946759258</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
@@ -830,10 +830,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="6">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G15" s="7">
         <v>59</v>
@@ -843,42 +843,42 @@
       <c r="A16" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="15" t="str">
+      <c r="B16" s="17" t="str">
         <f>CONCATENATE(TEXT(DATE(YEAR(上机时间)+上机时长_年,MONTH(上机时间)+上机时长_月,DAY(上机时间)+上机时长_日),"yyyy-mm-dd")," ",TEXT(TIME(HOUR(上机时间)+上机时长_时,MINUTE(上机时间)+上机时长_分,SECOND(上机时间)+上机时长_秒),"hh:mm:ss"))</f>
-        <v>2024-06-06 19:39:19</v>
-      </c>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+        <v>2024-06-07 09:07:04</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="11" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B18" s="9">
         <f>TEXT(下机时间-上机时间,"[ss]")/3600*区域费率+服务费率</f>
-        <v>7.8983333333333334</v>
-      </c>
-      <c r="C18" s="17" t="s">
-        <v>33</v>
+        <v>2.7813888888888889</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D18" s="9">
         <f>上网费用*服务费率</f>
-        <v>0.78983333333333339</v>
+        <v>0.27813888888888888</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="18">
-        <f>-(上网费用-(上网费用*会员折扣))</f>
-        <v>-0.39491666666666703</v>
-      </c>
-      <c r="G18" s="17"/>
+        <v>30</v>
+      </c>
+      <c r="F18" s="14">
+        <f>-(上网费用-(上网费用*鱼乐卡折扣))</f>
+        <v>-0.13906944444444447</v>
+      </c>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="11" t="s">
@@ -886,18 +886,18 @@
       </c>
       <c r="B19" s="9">
         <f>上网费用+平台服务费+鱼乐卡权益</f>
-        <v>8.2932500000000005</v>
+        <v>2.9204583333333334</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D19" s="9">
         <f>总金额-本次消费</f>
-        <v>91.926749999999998</v>
-      </c>
-      <c r="E19" s="17"/>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
+        <v>88.589541666666676</v>
+      </c>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
@@ -919,7 +919,7 @@
     <mergeCell ref="A9:B9"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11">
       <formula1>$C$6:$G$6</formula1>
     </dataValidation>

--- a/网鱼计费系统.xlsx
+++ b/网鱼计费系统.xlsx
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="E15" s="5">
+        <v>3</v>
+      </c>
+      <c r="F15" s="6">
+        <v>9</v>
+      </c>
+      <c r="G15" s="7">
         <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>22</v>
-      </c>
-      <c r="G15" s="7">
-        <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -845,7 +845,7 @@
       </c>
       <c r="B16" s="17" t="str">
         <f>CONCATENATE(TEXT(DATE(YEAR(上机时间)+上机时长_年,MONTH(上机时间)+上机时长_月,DAY(上机时间)+上机时长_日),"yyyy-mm-dd")," ",TEXT(TIME(HOUR(上机时间)+上机时长_时,MINUTE(上机时间)+上机时长_分,SECOND(上机时间)+上机时长_秒),"hh:mm:ss"))</f>
-        <v>2024-06-07 09:07:04</v>
+        <v>2024-06-07 11:53:05</v>
       </c>
       <c r="C16" s="17"/>
       <c r="D16" s="17"/>
@@ -862,21 +862,21 @@
       </c>
       <c r="B18" s="9">
         <f>TEXT(下机时间-上机时间,"[ss]")/3600*区域费率+服务费率</f>
-        <v>2.7813888888888889</v>
+        <v>22.150000000000002</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="9">
         <f>上网费用*服务费率</f>
-        <v>0.27813888888888888</v>
+        <v>2.2150000000000003</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="14">
         <f>-(上网费用-(上网费用*鱼乐卡折扣))</f>
-        <v>-0.13906944444444447</v>
+        <v>-1.1075000000000017</v>
       </c>
       <c r="G18" s="13"/>
     </row>
@@ -886,14 +886,14 @@
       </c>
       <c r="B19" s="9">
         <f>上网费用+平台服务费+鱼乐卡权益</f>
-        <v>2.9204583333333334</v>
+        <v>23.2575</v>
       </c>
       <c r="C19" s="11" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="9">
         <f>总金额-本次消费</f>
-        <v>88.589541666666676</v>
+        <v>68.252499999999998</v>
       </c>
       <c r="E19" s="13"/>
       <c r="F19" s="13"/>

--- a/网鱼计费系统.xlsx
+++ b/网鱼计费系统.xlsx
@@ -241,7 +241,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -249,6 +249,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -258,62 +267,68 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="182" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -603,321 +618,343 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="9" style="11"/>
-    <col min="6" max="7" width="9" style="11" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="11"/>
+    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="15"/>
-      <c r="D1" s="10" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="9">
+      <c r="G1" s="6">
         <v>91.51</v>
       </c>
     </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="17" t="s">
+      <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="17"/>
-      <c r="C3" s="1">
+      <c r="C3" s="8">
         <v>0.1</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="8">
+      <c r="C5" s="9">
         <v>1</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="9">
         <v>0.95</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="9">
         <v>0.92</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="9">
         <v>0.88</v>
       </c>
+      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="18"/>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="11">
+      <c r="C7" s="3">
         <v>14</v>
       </c>
-      <c r="D7" s="11">
+      <c r="D7" s="3">
         <v>20</v>
       </c>
-      <c r="E7" s="11">
+      <c r="E7" s="3">
         <v>24</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="3">
         <v>28</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="3">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="B8" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="11">
+      <c r="C8" s="3">
         <v>6</v>
       </c>
-      <c r="D8" s="11">
+      <c r="D8" s="3">
         <v>9</v>
       </c>
-      <c r="E8" s="11">
+      <c r="E8" s="3">
         <v>11</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="3">
         <v>13</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="3">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="11">
+      <c r="C9" s="4">
         <v>7</v>
       </c>
-      <c r="D9" s="11">
+      <c r="D9" s="4">
         <v>10</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="4">
         <v>12</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="4">
         <v>15</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="4">
         <v>18</v>
       </c>
     </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="11" t="s">
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="E11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="3" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="18">
+      <c r="B12" s="4">
         <v>2372</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="11" t="s">
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="11">
+      <c r="E12" s="4">
         <f>IF(OR(WEEKDAY(下机时间)-1=5,WEEKDAY(下机时间)-1=6,WEEKDAY(下机时间)-1=0),IF(鱼乐卡等级="普通",HLOOKUP(区域类型,C6:G9,2,0),HLOOKUP(区域类型,C6:G9,4,0)),IF(鱼乐卡等级="普通",HLOOKUP(区域类型,C6:G9,2,0),HLOOKUP(区域类型,C6:G9,3,0)))</f>
         <v>7</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="18">
         <f>HLOOKUP(鱼乐卡等级,C4:F5,2,0)</f>
         <v>0.95</v>
       </c>
     </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="20">
         <v>45450.363946759258</v>
       </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="16"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="10">
         <v>0</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="11">
         <v>0</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="12">
         <v>0</v>
       </c>
-      <c r="E15" s="5">
+      <c r="E15" s="13">
+        <v>4</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f>CONCATENATE(TEXT(DATE(YEAR(上机时间)+上机时长_年,MONTH(上机时间)+上机时长_月,DAY(上机时间)+上机时长_日),"yyyy-mm-dd")," ",TEXT(TIME(HOUR(上机时间)+上机时长_时,MINUTE(上机时间)+上机时长_分,SECOND(上机时间)+上机时长_秒),"hh:mm:ss"))</f>
+        <v>2024-06-07 12:46:04</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="7">
+        <f>TEXT(下机时间-上机时间,"[ss]")/3600*区域费率+服务费率</f>
+        <v>28.331388888888888</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="7">
+        <f>上网费用*服务费率</f>
+        <v>2.8331388888888891</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="17">
+        <f>-(上网费用-(上网费用*鱼乐卡折扣))</f>
+        <v>-1.4165694444444448</v>
+      </c>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F15" s="6">
-        <v>9</v>
-      </c>
-      <c r="G15" s="7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="B16" s="17" t="str">
-        <f>CONCATENATE(TEXT(DATE(YEAR(上机时间)+上机时长_年,MONTH(上机时间)+上机时长_月,DAY(上机时间)+上机时长_日),"yyyy-mm-dd")," ",TEXT(TIME(HOUR(上机时间)+上机时长_时,MINUTE(上机时间)+上机时长_分,SECOND(上机时间)+上机时长_秒),"hh:mm:ss"))</f>
-        <v>2024-06-07 11:53:05</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B18" s="9">
-        <f>TEXT(下机时间-上机时间,"[ss]")/3600*区域费率+服务费率</f>
-        <v>22.150000000000002</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D18" s="9">
-        <f>上网费用*服务费率</f>
-        <v>2.2150000000000003</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="14">
-        <f>-(上网费用-(上网费用*鱼乐卡折扣))</f>
-        <v>-1.1075000000000017</v>
-      </c>
-      <c r="G18" s="13"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="9">
+      <c r="B19" s="6">
         <f>上网费用+平台服务费+鱼乐卡权益</f>
-        <v>23.2575</v>
-      </c>
-      <c r="C19" s="11" t="s">
+        <v>29.747958333333333</v>
+      </c>
+      <c r="C19" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="6">
         <f>总金额-本次消费</f>
-        <v>68.252499999999998</v>
-      </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
+        <v>61.762041666666676</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
-  <mergeCells count="12">
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-  </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11">
@@ -928,7 +965,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
   <ignoredErrors>
     <ignoredError sqref="B1" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/网鱼计费系统.xlsx
+++ b/网鱼计费系统.xlsx
@@ -12,33 +12,58 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="浙江杭州三墩地铁站店" sheetId="1" r:id="rId1"/>
+    <sheet name="浙江杭州三墩地铁站店_会员_借记" sheetId="1" r:id="rId1"/>
+    <sheet name="浙江杭州三墩地铁站店_会员_预付" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="本次消费">浙江杭州三墩地铁站店!$B$19</definedName>
-    <definedName name="当前费率">浙江杭州三墩地铁站店!#REF!</definedName>
-    <definedName name="服务编号">浙江杭州三墩地铁站店!$B$12</definedName>
-    <definedName name="服务费率">浙江杭州三墩地铁站店!$C$3</definedName>
-    <definedName name="服务门店">浙江杭州三墩地铁站店!$B$11</definedName>
-    <definedName name="卡上余额">浙江杭州三墩地铁站店!$D$19</definedName>
-    <definedName name="平台服务费">浙江杭州三墩地铁站店!$D$18</definedName>
-    <definedName name="区域费率">浙江杭州三墩地铁站店!$E$12</definedName>
-    <definedName name="区域类型">浙江杭州三墩地铁站店!$E$11</definedName>
-    <definedName name="上机时间">浙江杭州三墩地铁站店!$B$14</definedName>
-    <definedName name="上机时长_分">浙江杭州三墩地铁站店!$F$15</definedName>
-    <definedName name="上机时长_秒">浙江杭州三墩地铁站店!$G$15</definedName>
-    <definedName name="上机时长_年">浙江杭州三墩地铁站店!$B$15</definedName>
-    <definedName name="上机时长_日">浙江杭州三墩地铁站店!$D$15</definedName>
-    <definedName name="上机时长_时">浙江杭州三墩地铁站店!$E$15</definedName>
-    <definedName name="上机时长_月">浙江杭州三墩地铁站店!$C$15</definedName>
-    <definedName name="上网费用">浙江杭州三墩地铁站店!$B$18</definedName>
-    <definedName name="下机时间">浙江杭州三墩地铁站店!$B$16</definedName>
-    <definedName name="用户卡号">浙江杭州三墩地铁站店!$B$1</definedName>
-    <definedName name="用户姓名">浙江杭州三墩地铁站店!$E$1</definedName>
-    <definedName name="鱼乐卡等级">浙江杭州三墩地铁站店!$G$11</definedName>
-    <definedName name="鱼乐卡权益">浙江杭州三墩地铁站店!$F$18</definedName>
-    <definedName name="鱼乐卡折扣">浙江杭州三墩地铁站店!$G$12</definedName>
-    <definedName name="总金额">浙江杭州三墩地铁站店!$G$1</definedName>
+    <definedName name="本次消费" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$B$19</definedName>
+    <definedName name="本次消费">浙江杭州三墩地铁站店_会员_借记!$B$19</definedName>
+    <definedName name="当前费率" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!#REF!</definedName>
+    <definedName name="当前费率">浙江杭州三墩地铁站店_会员_借记!#REF!</definedName>
+    <definedName name="服务编号" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$B$12</definedName>
+    <definedName name="服务编号">浙江杭州三墩地铁站店_会员_借记!$B$12</definedName>
+    <definedName name="服务费率" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$C$3</definedName>
+    <definedName name="服务费率">浙江杭州三墩地铁站店_会员_借记!$C$3</definedName>
+    <definedName name="服务门店" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$B$11</definedName>
+    <definedName name="服务门店">浙江杭州三墩地铁站店_会员_借记!$B$11</definedName>
+    <definedName name="卡上余额" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$D$19</definedName>
+    <definedName name="卡上余额">浙江杭州三墩地铁站店_会员_借记!$D$19</definedName>
+    <definedName name="平台服务费" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$D$18</definedName>
+    <definedName name="平台服务费">浙江杭州三墩地铁站店_会员_借记!$D$18</definedName>
+    <definedName name="区域费率" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$E$12</definedName>
+    <definedName name="区域费率">浙江杭州三墩地铁站店_会员_借记!$E$12</definedName>
+    <definedName name="区域类型" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$E$11</definedName>
+    <definedName name="区域类型">浙江杭州三墩地铁站店_会员_借记!$E$11</definedName>
+    <definedName name="上机时间" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$B$14</definedName>
+    <definedName name="上机时间">浙江杭州三墩地铁站店_会员_借记!$B$14</definedName>
+    <definedName name="上机时长_分" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$F$15</definedName>
+    <definedName name="上机时长_分">浙江杭州三墩地铁站店_会员_借记!$F$15</definedName>
+    <definedName name="上机时长_秒" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$G$15</definedName>
+    <definedName name="上机时长_秒">浙江杭州三墩地铁站店_会员_借记!$G$15</definedName>
+    <definedName name="上机时长_年" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$B$15</definedName>
+    <definedName name="上机时长_年">浙江杭州三墩地铁站店_会员_借记!$B$15</definedName>
+    <definedName name="上机时长_日" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$D$15</definedName>
+    <definedName name="上机时长_日">浙江杭州三墩地铁站店_会员_借记!$D$15</definedName>
+    <definedName name="上机时长_时" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$E$15</definedName>
+    <definedName name="上机时长_时">浙江杭州三墩地铁站店_会员_借记!$E$15</definedName>
+    <definedName name="上机时长_月" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$C$15</definedName>
+    <definedName name="上机时长_月">浙江杭州三墩地铁站店_会员_借记!$C$15</definedName>
+    <definedName name="上网费用" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$B$18</definedName>
+    <definedName name="上网费用">浙江杭州三墩地铁站店_会员_借记!$B$18</definedName>
+    <definedName name="下机时间" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$B$16</definedName>
+    <definedName name="下机时间">浙江杭州三墩地铁站店_会员_借记!$B$16</definedName>
+    <definedName name="用户卡号" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$B$1</definedName>
+    <definedName name="用户卡号">浙江杭州三墩地铁站店_会员_借记!$B$1</definedName>
+    <definedName name="用户姓名" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$E$1</definedName>
+    <definedName name="用户姓名">浙江杭州三墩地铁站店_会员_借记!$E$1</definedName>
+    <definedName name="鱼乐卡等级" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$G$11</definedName>
+    <definedName name="鱼乐卡等级">浙江杭州三墩地铁站店_会员_借记!$G$11</definedName>
+    <definedName name="鱼乐卡权益" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$F$18</definedName>
+    <definedName name="鱼乐卡权益">浙江杭州三墩地铁站店_会员_借记!$F$18</definedName>
+    <definedName name="鱼乐卡折扣" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$G$12</definedName>
+    <definedName name="鱼乐卡折扣">浙江杭州三墩地铁站店_会员_借记!$G$12</definedName>
+    <definedName name="总金额" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$G$1</definedName>
+    <definedName name="总金额">浙江杭州三墩地铁站店_会员_借记!$G$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -50,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
   <si>
     <t>上机时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -201,7 +226,7 @@
     <numFmt numFmtId="182" formatCode="00\ &quot;年&quot;"/>
     <numFmt numFmtId="183" formatCode="&quot;¥&quot;\ #,##0.00;\(&quot;¥&quot;\ #,##0.00\)"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +257,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -241,7 +273,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -258,6 +290,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -267,7 +308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -329,6 +370,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="181" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="183" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -627,7 +680,7 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -648,7 +701,7 @@
         <v>91.51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -657,7 +710,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -669,7 +722,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>31</v>
       </c>
@@ -687,7 +740,7 @@
       </c>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
@@ -705,7 +758,7 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>5</v>
       </c>
@@ -725,7 +778,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
@@ -745,7 +798,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>33</v>
       </c>
@@ -765,7 +818,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4"/>
       <c r="B9" s="4" t="s">
         <v>34</v>
@@ -786,7 +839,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -795,7 +848,7 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -816,7 +869,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
@@ -839,7 +892,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -848,7 +901,7 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
@@ -861,7 +914,7 @@
       <c r="F14" s="20"/>
       <c r="G14" s="20"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
@@ -884,7 +937,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
         <v>2</v>
       </c>
@@ -898,7 +951,7 @@
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="8"/>
       <c r="C17" s="3"/>
@@ -907,7 +960,7 @@
       <c r="F17" s="3"/>
       <c r="G17" s="3"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -931,7 +984,7 @@
       </c>
       <c r="G18" s="16"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
@@ -966,6 +1019,375 @@
   </dataValidations>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"宋体,常规"&amp;12&amp;A</oddHeader>
+  </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="B1" numberStoredAsText="1"/>
+  </ignoredErrors>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="G1" s="24">
+        <v>91.51</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="8"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="9">
+        <v>1</v>
+      </c>
+      <c r="D5" s="9">
+        <v>0.95</v>
+      </c>
+      <c r="E5" s="9">
+        <v>0.92</v>
+      </c>
+      <c r="F5" s="9">
+        <v>0.88</v>
+      </c>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="3">
+        <v>14</v>
+      </c>
+      <c r="D7" s="3">
+        <v>20</v>
+      </c>
+      <c r="E7" s="3">
+        <v>24</v>
+      </c>
+      <c r="F7" s="3">
+        <v>28</v>
+      </c>
+      <c r="G7" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="3">
+        <v>6</v>
+      </c>
+      <c r="D8" s="3">
+        <v>9</v>
+      </c>
+      <c r="E8" s="3">
+        <v>11</v>
+      </c>
+      <c r="F8" s="3">
+        <v>13</v>
+      </c>
+      <c r="G8" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="4">
+        <v>7</v>
+      </c>
+      <c r="D9" s="4">
+        <v>10</v>
+      </c>
+      <c r="E9" s="4">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="4">
+        <v>2372</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="4">
+        <f>IF(OR(WEEKDAY(下机时间)-1=5,WEEKDAY(下机时间)-1=6,WEEKDAY(下机时间)-1=0),IF(鱼乐卡等级="普通",HLOOKUP(区域类型,C6:G9,2,0),HLOOKUP(区域类型,C6:G9,4,0)),IF(鱼乐卡等级="普通",HLOOKUP(区域类型,C6:G9,2,0),HLOOKUP(区域类型,C6:G9,3,0)))</f>
+        <v>7</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="18">
+        <f>HLOOKUP(鱼乐卡等级,C4:F5,2,0)</f>
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+    </row>
+    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" s="20">
+        <v>45450.363946759258</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+    </row>
+    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="10">
+        <v>0</v>
+      </c>
+      <c r="C15" s="11">
+        <v>0</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>4</v>
+      </c>
+      <c r="F15" s="14">
+        <v>1</v>
+      </c>
+      <c r="G15" s="15">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B16" s="4" t="str">
+        <f>CONCATENATE(TEXT(DATE(YEAR(上机时间)+上机时长_年,MONTH(上机时间)+上机时长_月,DAY(上机时间)+上机时长_日),"yyyy-mm-dd")," ",TEXT(TIME(HOUR(上机时间)+上机时长_时,MINUTE(上机时间)+上机时长_分,SECOND(上机时间)+上机时长_秒),"hh:mm:ss"))</f>
+        <v>2024-06-07 12:46:04</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+    </row>
+    <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="7">
+        <f>TEXT(下机时间-上机时间,"[ss]")/3600*区域费率+服务费率</f>
+        <v>28.331388888888888</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" s="7">
+        <f>上网费用*服务费率</f>
+        <v>2.8331388888888891</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="17">
+        <f>-(上网费用-(上网费用*鱼乐卡折扣))</f>
+        <v>-1.4165694444444448</v>
+      </c>
+      <c r="G18" s="16"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="22">
+        <f>上网费用+平台服务费+鱼乐卡权益</f>
+        <v>29.747958333333333</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="24">
+        <f>总金额-本次消费</f>
+        <v>61.762041666666676</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="19"/>
+      <c r="G19" s="19"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B21" s="1"/>
+    </row>
+  </sheetData>
+  <dataConsolidate link="1"/>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11">
+      <formula1>$C$4:$F$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11">
+      <formula1>$C$6:$G$6</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
+  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddHeader>&amp;L&amp;"宋体,常规"&amp;12&amp;A</oddHeader>
+  </headerFooter>
   <ignoredErrors>
     <ignoredError sqref="B1" numberStoredAsText="1"/>
   </ignoredErrors>

--- a/网鱼计费系统.xlsx
+++ b/网鱼计费系统.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\own-pypxeserver\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -308,7 +308,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -325,9 +325,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -680,7 +677,7 @@
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>8</v>
       </c>
@@ -694,14 +691,14 @@
       <c r="E1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="6">
+      <c r="G1" s="21">
         <v>91.51</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -714,10 +711,10 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>0.1</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -744,16 +741,16 @@
       <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>1</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>0.95</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>0.92</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>0.88</v>
       </c>
       <c r="G5" s="3"/>
@@ -887,7 +884,7 @@
       <c r="F12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <f>HLOOKUP(鱼乐卡等级,C4:F5,2,0)</f>
         <v>0.95</v>
       </c>
@@ -905,35 +902,35 @@
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>45450.363946759258</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>0</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>0</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>0</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>4</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>1</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="14">
         <v>59</v>
       </c>
     </row>
@@ -953,7 +950,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="8"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -964,52 +961,53 @@
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <f>TEXT(下机时间-上机时间,"[ss]")/3600*区域费率+服务费率</f>
         <v>28.331388888888888</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <f>上网费用*服务费率</f>
         <v>2.8331388888888891</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <f>-(上网费用-(上网费用*鱼乐卡折扣))</f>
         <v>-1.4165694444444448</v>
       </c>
-      <c r="G18" s="16"/>
-    </row>
-    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="4" t="s">
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="21">
         <f>上网费用+平台服务费+鱼乐卡权益</f>
         <v>29.747958333333333</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="6">
+      <c r="D19" s="21">
         <f>总金额-本次消费</f>
         <v>61.762041666666676</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-    </row>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="1"/>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11">
       <formula1>$C$6:$G$6</formula1>
     </dataValidation>
@@ -1059,10 +1057,10 @@
       <c r="E1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="24">
+      <c r="G1" s="23">
         <v>91.51</v>
       </c>
     </row>
@@ -1079,10 +1077,10 @@
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="8">
+      <c r="C3" s="7">
         <v>0.1</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="7"/>
       <c r="E3" s="3"/>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1109,16 +1107,16 @@
       <c r="B5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="9">
+      <c r="C5" s="8">
         <v>1</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="8">
         <v>0.95</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="8">
         <v>0.92</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="8">
         <v>0.88</v>
       </c>
       <c r="G5" s="3"/>
@@ -1252,7 +1250,7 @@
       <c r="F12" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="17">
         <f>HLOOKUP(鱼乐卡等级,C4:F5,2,0)</f>
         <v>0.95</v>
       </c>
@@ -1270,35 +1268,35 @@
       <c r="A14" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="20">
+      <c r="B14" s="19">
         <v>45450.363946759258</v>
       </c>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="C14" s="19"/>
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="19"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="10">
+      <c r="B15" s="9">
         <v>0</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="10">
         <v>0</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="11">
         <v>0</v>
       </c>
-      <c r="E15" s="13">
+      <c r="E15" s="12">
         <v>4</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>1</v>
       </c>
-      <c r="G15" s="15">
+      <c r="G15" s="14">
         <v>59</v>
       </c>
     </row>
@@ -1318,7 +1316,7 @@
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
-      <c r="B17" s="8"/>
+      <c r="B17" s="7"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
@@ -1329,44 +1327,44 @@
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <f>TEXT(下机时间-上机时间,"[ss]")/3600*区域费率+服务费率</f>
         <v>28.331388888888888</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="6">
         <f>上网费用*服务费率</f>
         <v>2.8331388888888891</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="17">
+      <c r="F18" s="16">
         <f>-(上网费用-(上网费用*鱼乐卡折扣))</f>
         <v>-1.4165694444444448</v>
       </c>
-      <c r="G18" s="16"/>
+      <c r="G18" s="15"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="A19" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="22">
+      <c r="B19" s="21">
         <f>上网费用+平台服务费+鱼乐卡权益</f>
         <v>29.747958333333333</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="24">
+      <c r="D19" s="23">
         <f>总金额-本次消费</f>
         <v>61.762041666666676</v>
       </c>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
+      <c r="E19" s="18"/>
+      <c r="F19" s="18"/>
+      <c r="G19" s="18"/>
     </row>
     <row r="20" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">

--- a/网鱼计费系统.xlsx
+++ b/网鱼计费系统.xlsx
@@ -5,65 +5,65 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Downloads\own-pypxeserver\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="浙江杭州三墩地铁站店_会员_借记" sheetId="1" r:id="rId1"/>
-    <sheet name="浙江杭州三墩地铁站店_会员_预付" sheetId="2" r:id="rId2"/>
+    <sheet name="浙江杭州滨江中南乐游城店_会员_借记" sheetId="3" r:id="rId1"/>
+    <sheet name="浙江杭州三墩地铁站店_会员_借记" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="本次消费" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$B$19</definedName>
+    <definedName name="本次消费" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$B$19</definedName>
     <definedName name="本次消费">浙江杭州三墩地铁站店_会员_借记!$B$19</definedName>
-    <definedName name="当前费率" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!#REF!</definedName>
+    <definedName name="当前费率" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!#REF!</definedName>
     <definedName name="当前费率">浙江杭州三墩地铁站店_会员_借记!#REF!</definedName>
-    <definedName name="服务编号" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$B$12</definedName>
+    <definedName name="服务编号" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$B$12</definedName>
     <definedName name="服务编号">浙江杭州三墩地铁站店_会员_借记!$B$12</definedName>
-    <definedName name="服务费率" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$C$3</definedName>
+    <definedName name="服务费率" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$C$3</definedName>
     <definedName name="服务费率">浙江杭州三墩地铁站店_会员_借记!$C$3</definedName>
-    <definedName name="服务门店" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$B$11</definedName>
+    <definedName name="服务门店" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$B$11</definedName>
     <definedName name="服务门店">浙江杭州三墩地铁站店_会员_借记!$B$11</definedName>
-    <definedName name="卡上余额" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$D$19</definedName>
+    <definedName name="卡上余额" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$D$19</definedName>
     <definedName name="卡上余额">浙江杭州三墩地铁站店_会员_借记!$D$19</definedName>
-    <definedName name="平台服务费" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$D$18</definedName>
+    <definedName name="平台服务费" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$D$18</definedName>
     <definedName name="平台服务费">浙江杭州三墩地铁站店_会员_借记!$D$18</definedName>
-    <definedName name="区域费率" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$E$12</definedName>
-    <definedName name="区域费率">浙江杭州三墩地铁站店_会员_借记!$E$12</definedName>
-    <definedName name="区域类型" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$E$11</definedName>
-    <definedName name="区域类型">浙江杭州三墩地铁站店_会员_借记!$E$11</definedName>
-    <definedName name="上机时间" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$B$14</definedName>
+    <definedName name="区域费率" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$D$12</definedName>
+    <definedName name="区域费率">浙江杭州三墩地铁站店_会员_借记!$D$12</definedName>
+    <definedName name="区域类型" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$D$11</definedName>
+    <definedName name="区域类型">浙江杭州三墩地铁站店_会员_借记!$D$11</definedName>
+    <definedName name="上机时间" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$B$14</definedName>
     <definedName name="上机时间">浙江杭州三墩地铁站店_会员_借记!$B$14</definedName>
-    <definedName name="上机时长_分" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$F$15</definedName>
+    <definedName name="上机时长_分" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$F$15</definedName>
     <definedName name="上机时长_分">浙江杭州三墩地铁站店_会员_借记!$F$15</definedName>
-    <definedName name="上机时长_秒" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$G$15</definedName>
+    <definedName name="上机时长_秒" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$G$15</definedName>
     <definedName name="上机时长_秒">浙江杭州三墩地铁站店_会员_借记!$G$15</definedName>
-    <definedName name="上机时长_年" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$B$15</definedName>
+    <definedName name="上机时长_年" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$B$15</definedName>
     <definedName name="上机时长_年">浙江杭州三墩地铁站店_会员_借记!$B$15</definedName>
-    <definedName name="上机时长_日" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$D$15</definedName>
+    <definedName name="上机时长_日" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$D$15</definedName>
     <definedName name="上机时长_日">浙江杭州三墩地铁站店_会员_借记!$D$15</definedName>
-    <definedName name="上机时长_时" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$E$15</definedName>
+    <definedName name="上机时长_时" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$E$15</definedName>
     <definedName name="上机时长_时">浙江杭州三墩地铁站店_会员_借记!$E$15</definedName>
-    <definedName name="上机时长_月" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$C$15</definedName>
+    <definedName name="上机时长_月" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$C$15</definedName>
     <definedName name="上机时长_月">浙江杭州三墩地铁站店_会员_借记!$C$15</definedName>
-    <definedName name="上网费用" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$B$18</definedName>
+    <definedName name="上网费用" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$B$18</definedName>
     <definedName name="上网费用">浙江杭州三墩地铁站店_会员_借记!$B$18</definedName>
-    <definedName name="下机时间" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$B$16</definedName>
+    <definedName name="下机时间" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$B$16</definedName>
     <definedName name="下机时间">浙江杭州三墩地铁站店_会员_借记!$B$16</definedName>
-    <definedName name="用户卡号" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$B$1</definedName>
+    <definedName name="用户卡号" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$B$1</definedName>
     <definedName name="用户卡号">浙江杭州三墩地铁站店_会员_借记!$B$1</definedName>
-    <definedName name="用户姓名" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$E$1</definedName>
-    <definedName name="用户姓名">浙江杭州三墩地铁站店_会员_借记!$E$1</definedName>
-    <definedName name="鱼乐卡等级" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$G$11</definedName>
-    <definedName name="鱼乐卡等级">浙江杭州三墩地铁站店_会员_借记!$G$11</definedName>
-    <definedName name="鱼乐卡权益" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$F$18</definedName>
+    <definedName name="用户姓名" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$D$1</definedName>
+    <definedName name="用户姓名">浙江杭州三墩地铁站店_会员_借记!$D$1</definedName>
+    <definedName name="鱼乐卡等级" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$F$11</definedName>
+    <definedName name="鱼乐卡等级">浙江杭州三墩地铁站店_会员_借记!$F$11</definedName>
+    <definedName name="鱼乐卡权益" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$F$18</definedName>
     <definedName name="鱼乐卡权益">浙江杭州三墩地铁站店_会员_借记!$F$18</definedName>
-    <definedName name="鱼乐卡折扣" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$G$12</definedName>
-    <definedName name="鱼乐卡折扣">浙江杭州三墩地铁站店_会员_借记!$G$12</definedName>
-    <definedName name="总金额" localSheetId="1">浙江杭州三墩地铁站店_会员_预付!$G$1</definedName>
-    <definedName name="总金额">浙江杭州三墩地铁站店_会员_借记!$G$1</definedName>
+    <definedName name="鱼乐卡折扣" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$F$12</definedName>
+    <definedName name="鱼乐卡折扣">浙江杭州三墩地铁站店_会员_借记!$F$12</definedName>
+    <definedName name="总金额" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$F$1</definedName>
+    <definedName name="总金额">浙江杭州三墩地铁站店_会员_借记!$F$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -75,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="38">
   <si>
     <t>上机时间</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -209,6 +209,16 @@
   </si>
   <si>
     <t>区域费率_高级_假期</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>浙江杭州滨江中南乐游城店</t>
+  </si>
+  <si>
+    <t>高端单人包</t>
+  </si>
+  <si>
+    <t>高端单人包</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -226,7 +236,7 @@
     <numFmt numFmtId="182" formatCode="00\ &quot;年&quot;"/>
     <numFmt numFmtId="183" formatCode="&quot;¥&quot;\ #,##0.00;\(&quot;¥&quot;\ #,##0.00\)"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -256,13 +266,6 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -308,16 +311,10 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -373,12 +370,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="183" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="183" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -666,363 +657,321 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="E1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="21">
-        <v>91.51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
+      <c r="F1" s="19">
+        <v>108.43</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>0.1</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>0.95</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>0.92</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>0.88</v>
       </c>
-      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>23</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3">
-        <v>14</v>
-      </c>
-      <c r="D7" s="3">
+      <c r="C7" s="1">
+        <v>12</v>
+      </c>
+      <c r="D7" s="1">
         <v>20</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>24</v>
       </c>
-      <c r="F7" s="3">
-        <v>28</v>
-      </c>
-      <c r="G7" s="3">
+      <c r="F7" s="1">
+        <v>32</v>
+      </c>
+      <c r="G7" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="1">
+        <v>4</v>
+      </c>
+      <c r="D8" s="1">
+        <v>9</v>
+      </c>
+      <c r="E8" s="1">
+        <v>12</v>
+      </c>
+      <c r="F8" s="1">
+        <v>15</v>
+      </c>
+      <c r="G8" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2">
+        <v>12</v>
+      </c>
+      <c r="F9" s="2">
+        <v>15</v>
+      </c>
+      <c r="G9" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8" s="3">
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" s="2">
+        <v>2372</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="3">
-        <v>9</v>
-      </c>
-      <c r="E8" s="3">
-        <v>11</v>
-      </c>
-      <c r="F8" s="3">
-        <v>13</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="D12" s="2">
+        <f>IF(OR(WEEKDAY(下机时间)-1=5,WEEKDAY(下机时间)-1=6,WEEKDAY(下机时间)-1=0),IF(鱼乐卡等级="普通",HLOOKUP(区域类型,C6:G9,2,0),HLOOKUP(区域类型,C6:G9,4,0)),IF(鱼乐卡等级="普通",HLOOKUP(区域类型,C6:G9,2,0),HLOOKUP(区域类型,C6:G9,3,0)))</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="4">
-        <v>7</v>
-      </c>
-      <c r="D9" s="4">
-        <v>10</v>
-      </c>
-      <c r="E9" s="4">
-        <v>12</v>
-      </c>
-      <c r="F9" s="4">
-        <v>15</v>
-      </c>
-      <c r="G9" s="4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="4">
-        <v>2372</v>
-      </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="E12" s="4">
-        <f>IF(OR(WEEKDAY(下机时间)-1=5,WEEKDAY(下机时间)-1=6,WEEKDAY(下机时间)-1=0),IF(鱼乐卡等级="普通",HLOOKUP(区域类型,C6:G9,2,0),HLOOKUP(区域类型,C6:G9,4,0)),IF(鱼乐卡等级="普通",HLOOKUP(区域类型,C6:G9,2,0),HLOOKUP(区域类型,C6:G9,3,0)))</f>
-        <v>7</v>
-      </c>
-      <c r="F12" s="4" t="s">
+      <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="17">
+      <c r="F12" s="15">
         <f>HLOOKUP(鱼乐卡等级,C4:F5,2,0)</f>
         <v>0.95</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
+      <c r="G12" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="19">
+      <c r="B14" s="17">
         <v>45450.363946759258</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="7">
         <v>0</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <v>0</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>0</v>
       </c>
-      <c r="E15" s="12">
-        <v>4</v>
-      </c>
-      <c r="F15" s="13">
+      <c r="E15" s="10">
         <v>1</v>
       </c>
-      <c r="G15" s="14">
+      <c r="F15" s="11">
+        <v>41</v>
+      </c>
+      <c r="G15" s="12">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="4" t="str">
+      <c r="B16" s="2" t="str">
         <f>CONCATENATE(TEXT(DATE(YEAR(上机时间)+上机时长_年,MONTH(上机时间)+上机时长_月,DAY(上机时间)+上机时长_日),"yyyy-mm-dd")," ",TEXT(TIME(HOUR(上机时间)+上机时长_时,MINUTE(上机时间)+上机时长_分,SECOND(上机时间)+上机时长_秒),"hh:mm:ss"))</f>
-        <v>2024-06-07 12:46:04</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+        <v>2024-06-07 10:26:04</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <f>TEXT(下机时间-上机时间,"[ss]")/3600*区域费率+服务费率</f>
-        <v>28.331388888888888</v>
-      </c>
-      <c r="C18" s="15" t="s">
+        <v>27.295555555555556</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <f>上网费用*服务费率</f>
-        <v>2.8331388888888891</v>
-      </c>
-      <c r="E18" s="3" t="s">
+        <v>2.7295555555555557</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="14">
         <f>-(上网费用-(上网费用*鱼乐卡折扣))</f>
-        <v>-1.4165694444444448</v>
-      </c>
-      <c r="G18" s="15"/>
+        <v>-1.3647777777777783</v>
+      </c>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="19">
         <f>上网费用+平台服务费+鱼乐卡权益</f>
-        <v>29.747958333333333</v>
-      </c>
-      <c r="C19" s="20" t="s">
+        <v>28.660333333333334</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="19">
         <f>总金额-本次消费</f>
-        <v>61.762041666666676</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
+        <v>79.769666666666666</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="5"/>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11">
+      <formula1>$C$4:$F$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11">
       <formula1>$C$6:$G$6</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11">
-      <formula1>$C$4:$F$4</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"宋体,常规"&amp;12&amp;A</oddHeader>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="B1" numberStoredAsText="1"/>
-  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -1034,355 +983,319 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="18" t="s">
         <v>26</v>
       </c>
-      <c r="G1" s="23">
-        <v>91.51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-    </row>
+      <c r="F1" s="19">
+        <v>108.43</v>
+      </c>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>0.1</v>
       </c>
-      <c r="D3" s="7"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
+      <c r="D3" s="5"/>
     </row>
     <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3"/>
     </row>
     <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="6">
         <v>0.95</v>
       </c>
-      <c r="E5" s="8">
+      <c r="E5" s="6">
         <v>0.92</v>
       </c>
-      <c r="F5" s="8">
+      <c r="F5" s="6">
         <v>0.88</v>
       </c>
-      <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <v>14</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <v>20</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="1">
         <v>24</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="1">
         <v>28</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="1">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <v>6</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <v>9</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="1">
         <v>11</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="1">
         <v>13</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="1">
         <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>7</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="2">
         <v>10</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="2">
         <v>12</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="2">
         <v>15</v>
       </c>
-      <c r="G9" s="4">
+      <c r="G9" s="2">
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-    </row>
+    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3" t="s">
+      <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="D11" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="E11" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="F11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <v>2372</v>
       </c>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4" t="s">
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E12" s="4">
+      <c r="D12" s="2">
         <f>IF(OR(WEEKDAY(下机时间)-1=5,WEEKDAY(下机时间)-1=6,WEEKDAY(下机时间)-1=0),IF(鱼乐卡等级="普通",HLOOKUP(区域类型,C6:G9,2,0),HLOOKUP(区域类型,C6:G9,4,0)),IF(鱼乐卡等级="普通",HLOOKUP(区域类型,C6:G9,2,0),HLOOKUP(区域类型,C6:G9,3,0)))</f>
-        <v>7</v>
-      </c>
-      <c r="F12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G12" s="17">
+      <c r="F12" s="15">
         <f>HLOOKUP(鱼乐卡等级,C4:F5,2,0)</f>
         <v>0.95</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-    </row>
+      <c r="G12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="19">
-        <v>45450.363946759258</v>
-      </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19"/>
-      <c r="G14" s="19"/>
+      <c r="B14" s="17">
+        <v>45453.467997685184</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
     </row>
     <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="9">
+      <c r="B15" s="7">
         <v>0</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="8">
         <v>0</v>
       </c>
-      <c r="D15" s="11">
+      <c r="D15" s="9">
         <v>0</v>
       </c>
-      <c r="E15" s="12">
-        <v>4</v>
-      </c>
-      <c r="F15" s="13">
+      <c r="E15" s="10">
         <v>1</v>
       </c>
-      <c r="G15" s="14">
+      <c r="F15" s="11">
+        <v>41</v>
+      </c>
+      <c r="G15" s="12">
         <v>59</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B16" s="4" t="str">
+      <c r="B16" s="2" t="str">
         <f>CONCATENATE(TEXT(DATE(YEAR(上机时间)+上机时长_年,MONTH(上机时间)+上机时长_月,DAY(上机时间)+上机时长_日),"yyyy-mm-dd")," ",TEXT(TIME(HOUR(上机时间)+上机时长_时,MINUTE(上机时间)+上机时长_分,SECOND(上机时间)+上机时长_秒),"hh:mm:ss"))</f>
-        <v>2024-06-07 12:46:04</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+        <v>2024-06-10 12:55:54</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
     </row>
     <row r="17" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
+      <c r="B17" s="5"/>
     </row>
     <row r="18" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="4">
         <f>TEXT(下机时间-上机时间,"[ss]")/3600*区域费率+服务费率</f>
-        <v>28.331388888888888</v>
-      </c>
-      <c r="C18" s="15" t="s">
+        <v>10.298333333333332</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="6">
+      <c r="D18" s="4">
         <f>上网费用*服务费率</f>
-        <v>2.8331388888888891</v>
-      </c>
-      <c r="E18" s="3" t="s">
+        <v>1.0298333333333332</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F18" s="16">
+      <c r="F18" s="14">
         <f>-(上网费用-(上网费用*鱼乐卡折扣))</f>
-        <v>-1.4165694444444448</v>
-      </c>
-      <c r="G18" s="15"/>
+        <v>-0.51491666666666625</v>
+      </c>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="21">
+      <c r="B19" s="19">
         <f>上网费用+平台服务费+鱼乐卡权益</f>
-        <v>29.747958333333333</v>
-      </c>
-      <c r="C19" s="22" t="s">
+        <v>10.813249999999998</v>
+      </c>
+      <c r="C19" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="19">
         <f>总金额-本次消费</f>
-        <v>61.762041666666676</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
+        <v>97.61675000000001</v>
+      </c>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
     </row>
     <row r="20" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="1"/>
+      <c r="B21" s="5"/>
     </row>
   </sheetData>
   <dataConsolidate link="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11">
+      <formula1>$C$6:$G$6</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11">
       <formula1>$C$4:$F$4</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E11">
-      <formula1>$C$6:$G$6</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="95" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"宋体,常规"&amp;12&amp;A</oddHeader>
   </headerFooter>

--- a/网鱼计费系统.xlsx
+++ b/网鱼计费系统.xlsx
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="17">
-        <v>45450.363946759258</v>
+        <v>45453.467997685184</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -898,7 +898,7 @@
       </c>
       <c r="B16" s="2" t="str">
         <f>CONCATENATE(TEXT(DATE(YEAR(上机时间)+上机时长_年,MONTH(上机时间)+上机时长_月,DAY(上机时间)+上机时长_日),"yyyy-mm-dd")," ",TEXT(TIME(HOUR(上机时间)+上机时长_时,MINUTE(上机时间)+上机时长_分,SECOND(上机时间)+上机时长_秒),"hh:mm:ss"))</f>
-        <v>2024-06-07 10:26:04</v>
+        <v>2024-06-10 12:55:54</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>

--- a/网鱼计费系统.xlsx
+++ b/网鱼计费系统.xlsx
@@ -12,58 +12,58 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="浙江杭州滨江中南乐游城店_会员_借记" sheetId="3" r:id="rId1"/>
-    <sheet name="浙江杭州三墩地铁站店_会员_借记" sheetId="1" r:id="rId2"/>
+    <sheet name="浙江杭州滨江中南乐游城店_借记" sheetId="3" r:id="rId1"/>
+    <sheet name="浙江杭州三墩地铁站店_借记" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="本次消费" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$B$19</definedName>
-    <definedName name="本次消费">浙江杭州三墩地铁站店_会员_借记!$B$19</definedName>
-    <definedName name="当前费率" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!#REF!</definedName>
-    <definedName name="当前费率">浙江杭州三墩地铁站店_会员_借记!#REF!</definedName>
-    <definedName name="服务编号" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$B$12</definedName>
-    <definedName name="服务编号">浙江杭州三墩地铁站店_会员_借记!$B$12</definedName>
-    <definedName name="服务费率" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$C$3</definedName>
-    <definedName name="服务费率">浙江杭州三墩地铁站店_会员_借记!$C$3</definedName>
-    <definedName name="服务门店" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$B$11</definedName>
-    <definedName name="服务门店">浙江杭州三墩地铁站店_会员_借记!$B$11</definedName>
-    <definedName name="卡上余额" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$D$19</definedName>
-    <definedName name="卡上余额">浙江杭州三墩地铁站店_会员_借记!$D$19</definedName>
-    <definedName name="平台服务费" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$D$18</definedName>
-    <definedName name="平台服务费">浙江杭州三墩地铁站店_会员_借记!$D$18</definedName>
-    <definedName name="区域费率" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$D$12</definedName>
-    <definedName name="区域费率">浙江杭州三墩地铁站店_会员_借记!$D$12</definedName>
-    <definedName name="区域类型" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$D$11</definedName>
-    <definedName name="区域类型">浙江杭州三墩地铁站店_会员_借记!$D$11</definedName>
-    <definedName name="上机时间" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$B$14</definedName>
-    <definedName name="上机时间">浙江杭州三墩地铁站店_会员_借记!$B$14</definedName>
-    <definedName name="上机时长_分" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$F$15</definedName>
-    <definedName name="上机时长_分">浙江杭州三墩地铁站店_会员_借记!$F$15</definedName>
-    <definedName name="上机时长_秒" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$G$15</definedName>
-    <definedName name="上机时长_秒">浙江杭州三墩地铁站店_会员_借记!$G$15</definedName>
-    <definedName name="上机时长_年" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$B$15</definedName>
-    <definedName name="上机时长_年">浙江杭州三墩地铁站店_会员_借记!$B$15</definedName>
-    <definedName name="上机时长_日" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$D$15</definedName>
-    <definedName name="上机时长_日">浙江杭州三墩地铁站店_会员_借记!$D$15</definedName>
-    <definedName name="上机时长_时" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$E$15</definedName>
-    <definedName name="上机时长_时">浙江杭州三墩地铁站店_会员_借记!$E$15</definedName>
-    <definedName name="上机时长_月" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$C$15</definedName>
-    <definedName name="上机时长_月">浙江杭州三墩地铁站店_会员_借记!$C$15</definedName>
-    <definedName name="上网费用" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$B$18</definedName>
-    <definedName name="上网费用">浙江杭州三墩地铁站店_会员_借记!$B$18</definedName>
-    <definedName name="下机时间" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$B$16</definedName>
-    <definedName name="下机时间">浙江杭州三墩地铁站店_会员_借记!$B$16</definedName>
-    <definedName name="用户卡号" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$B$1</definedName>
-    <definedName name="用户卡号">浙江杭州三墩地铁站店_会员_借记!$B$1</definedName>
-    <definedName name="用户姓名" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$D$1</definedName>
-    <definedName name="用户姓名">浙江杭州三墩地铁站店_会员_借记!$D$1</definedName>
-    <definedName name="鱼乐卡等级" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$F$11</definedName>
-    <definedName name="鱼乐卡等级">浙江杭州三墩地铁站店_会员_借记!$F$11</definedName>
-    <definedName name="鱼乐卡权益" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$F$18</definedName>
-    <definedName name="鱼乐卡权益">浙江杭州三墩地铁站店_会员_借记!$F$18</definedName>
-    <definedName name="鱼乐卡折扣" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$F$12</definedName>
-    <definedName name="鱼乐卡折扣">浙江杭州三墩地铁站店_会员_借记!$F$12</definedName>
-    <definedName name="总金额" localSheetId="0">浙江杭州滨江中南乐游城店_会员_借记!$F$1</definedName>
-    <definedName name="总金额">浙江杭州三墩地铁站店_会员_借记!$F$1</definedName>
+    <definedName name="本次消费" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$B$19</definedName>
+    <definedName name="本次消费">浙江杭州三墩地铁站店_借记!$B$19</definedName>
+    <definedName name="当前费率" localSheetId="0">浙江杭州滨江中南乐游城店_借记!#REF!</definedName>
+    <definedName name="当前费率">浙江杭州三墩地铁站店_借记!#REF!</definedName>
+    <definedName name="服务编号" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$B$12</definedName>
+    <definedName name="服务编号">浙江杭州三墩地铁站店_借记!$B$12</definedName>
+    <definedName name="服务费率" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$C$3</definedName>
+    <definedName name="服务费率">浙江杭州三墩地铁站店_借记!$C$3</definedName>
+    <definedName name="服务门店" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$B$11</definedName>
+    <definedName name="服务门店">浙江杭州三墩地铁站店_借记!$B$11</definedName>
+    <definedName name="卡上余额" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$D$19</definedName>
+    <definedName name="卡上余额">浙江杭州三墩地铁站店_借记!$D$19</definedName>
+    <definedName name="平台服务费" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$D$18</definedName>
+    <definedName name="平台服务费">浙江杭州三墩地铁站店_借记!$D$18</definedName>
+    <definedName name="区域费率" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$D$12</definedName>
+    <definedName name="区域费率">浙江杭州三墩地铁站店_借记!$D$12</definedName>
+    <definedName name="区域类型" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$D$11</definedName>
+    <definedName name="区域类型">浙江杭州三墩地铁站店_借记!$D$11</definedName>
+    <definedName name="上机时间" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$B$14</definedName>
+    <definedName name="上机时间">浙江杭州三墩地铁站店_借记!$B$14</definedName>
+    <definedName name="上机时长_分" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$F$15</definedName>
+    <definedName name="上机时长_分">浙江杭州三墩地铁站店_借记!$F$15</definedName>
+    <definedName name="上机时长_秒" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$G$15</definedName>
+    <definedName name="上机时长_秒">浙江杭州三墩地铁站店_借记!$G$15</definedName>
+    <definedName name="上机时长_年" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$B$15</definedName>
+    <definedName name="上机时长_年">浙江杭州三墩地铁站店_借记!$B$15</definedName>
+    <definedName name="上机时长_日" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$D$15</definedName>
+    <definedName name="上机时长_日">浙江杭州三墩地铁站店_借记!$D$15</definedName>
+    <definedName name="上机时长_时" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$E$15</definedName>
+    <definedName name="上机时长_时">浙江杭州三墩地铁站店_借记!$E$15</definedName>
+    <definedName name="上机时长_月" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$C$15</definedName>
+    <definedName name="上机时长_月">浙江杭州三墩地铁站店_借记!$C$15</definedName>
+    <definedName name="上网费用" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$B$18</definedName>
+    <definedName name="上网费用">浙江杭州三墩地铁站店_借记!$B$18</definedName>
+    <definedName name="下机时间" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$B$16</definedName>
+    <definedName name="下机时间">浙江杭州三墩地铁站店_借记!$B$16</definedName>
+    <definedName name="用户卡号" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$B$1</definedName>
+    <definedName name="用户卡号">浙江杭州三墩地铁站店_借记!$B$1</definedName>
+    <definedName name="用户姓名" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$D$1</definedName>
+    <definedName name="用户姓名">浙江杭州三墩地铁站店_借记!$D$1</definedName>
+    <definedName name="鱼乐卡等级" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$F$11</definedName>
+    <definedName name="鱼乐卡等级">浙江杭州三墩地铁站店_借记!$F$11</definedName>
+    <definedName name="鱼乐卡权益" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$F$18</definedName>
+    <definedName name="鱼乐卡权益">浙江杭州三墩地铁站店_借记!$F$18</definedName>
+    <definedName name="鱼乐卡折扣" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$F$12</definedName>
+    <definedName name="鱼乐卡折扣">浙江杭州三墩地铁站店_借记!$F$12</definedName>
+    <definedName name="总金额" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$F$1</definedName>
+    <definedName name="总金额">浙江杭州三墩地铁站店_借记!$F$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>

--- a/网鱼计费系统.xlsx
+++ b/网鱼计费系统.xlsx
@@ -12,58 +12,58 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210"/>
   </bookViews>
   <sheets>
-    <sheet name="浙江杭州滨江中南乐游城店_借记" sheetId="3" r:id="rId1"/>
-    <sheet name="浙江杭州三墩地铁站店_借记" sheetId="1" r:id="rId2"/>
+    <sheet name="浙江杭州滨江中南乐游城店_原始凭证" sheetId="3" r:id="rId1"/>
+    <sheet name="浙江杭州三墩地铁站店_原始凭证" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="本次消费" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$B$19</definedName>
-    <definedName name="本次消费">浙江杭州三墩地铁站店_借记!$B$19</definedName>
-    <definedName name="当前费率" localSheetId="0">浙江杭州滨江中南乐游城店_借记!#REF!</definedName>
-    <definedName name="当前费率">浙江杭州三墩地铁站店_借记!#REF!</definedName>
-    <definedName name="服务编号" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$B$12</definedName>
-    <definedName name="服务编号">浙江杭州三墩地铁站店_借记!$B$12</definedName>
-    <definedName name="服务费率" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$C$3</definedName>
-    <definedName name="服务费率">浙江杭州三墩地铁站店_借记!$C$3</definedName>
-    <definedName name="服务门店" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$B$11</definedName>
-    <definedName name="服务门店">浙江杭州三墩地铁站店_借记!$B$11</definedName>
-    <definedName name="卡上余额" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$D$19</definedName>
-    <definedName name="卡上余额">浙江杭州三墩地铁站店_借记!$D$19</definedName>
-    <definedName name="平台服务费" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$D$18</definedName>
-    <definedName name="平台服务费">浙江杭州三墩地铁站店_借记!$D$18</definedName>
-    <definedName name="区域费率" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$D$12</definedName>
-    <definedName name="区域费率">浙江杭州三墩地铁站店_借记!$D$12</definedName>
-    <definedName name="区域类型" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$D$11</definedName>
-    <definedName name="区域类型">浙江杭州三墩地铁站店_借记!$D$11</definedName>
-    <definedName name="上机时间" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$B$14</definedName>
-    <definedName name="上机时间">浙江杭州三墩地铁站店_借记!$B$14</definedName>
-    <definedName name="上机时长_分" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$F$15</definedName>
-    <definedName name="上机时长_分">浙江杭州三墩地铁站店_借记!$F$15</definedName>
-    <definedName name="上机时长_秒" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$G$15</definedName>
-    <definedName name="上机时长_秒">浙江杭州三墩地铁站店_借记!$G$15</definedName>
-    <definedName name="上机时长_年" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$B$15</definedName>
-    <definedName name="上机时长_年">浙江杭州三墩地铁站店_借记!$B$15</definedName>
-    <definedName name="上机时长_日" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$D$15</definedName>
-    <definedName name="上机时长_日">浙江杭州三墩地铁站店_借记!$D$15</definedName>
-    <definedName name="上机时长_时" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$E$15</definedName>
-    <definedName name="上机时长_时">浙江杭州三墩地铁站店_借记!$E$15</definedName>
-    <definedName name="上机时长_月" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$C$15</definedName>
-    <definedName name="上机时长_月">浙江杭州三墩地铁站店_借记!$C$15</definedName>
-    <definedName name="上网费用" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$B$18</definedName>
-    <definedName name="上网费用">浙江杭州三墩地铁站店_借记!$B$18</definedName>
-    <definedName name="下机时间" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$B$16</definedName>
-    <definedName name="下机时间">浙江杭州三墩地铁站店_借记!$B$16</definedName>
-    <definedName name="用户卡号" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$B$1</definedName>
-    <definedName name="用户卡号">浙江杭州三墩地铁站店_借记!$B$1</definedName>
-    <definedName name="用户姓名" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$D$1</definedName>
-    <definedName name="用户姓名">浙江杭州三墩地铁站店_借记!$D$1</definedName>
-    <definedName name="鱼乐卡等级" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$F$11</definedName>
-    <definedName name="鱼乐卡等级">浙江杭州三墩地铁站店_借记!$F$11</definedName>
-    <definedName name="鱼乐卡权益" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$F$18</definedName>
-    <definedName name="鱼乐卡权益">浙江杭州三墩地铁站店_借记!$F$18</definedName>
-    <definedName name="鱼乐卡折扣" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$F$12</definedName>
-    <definedName name="鱼乐卡折扣">浙江杭州三墩地铁站店_借记!$F$12</definedName>
-    <definedName name="总金额" localSheetId="0">浙江杭州滨江中南乐游城店_借记!$F$1</definedName>
-    <definedName name="总金额">浙江杭州三墩地铁站店_借记!$F$1</definedName>
+    <definedName name="本次消费" localSheetId="0">浙江杭州滨江中南乐游城店_原始凭证!$B$19</definedName>
+    <definedName name="本次消费">浙江杭州三墩地铁站店_原始凭证!$B$19</definedName>
+    <definedName name="当前费率" localSheetId="0">浙江杭州滨江中南乐游城店_原始凭证!#REF!</definedName>
+    <definedName name="当前费率">浙江杭州三墩地铁站店_原始凭证!#REF!</definedName>
+    <definedName name="服务编号" localSheetId="0">浙江杭州滨江中南乐游城店_原始凭证!$B$12</definedName>
+    <definedName name="服务编号">浙江杭州三墩地铁站店_原始凭证!$B$12</definedName>
+    <definedName name="服务费率" localSheetId="0">浙江杭州滨江中南乐游城店_原始凭证!$C$3</definedName>
+    <definedName name="服务费率">浙江杭州三墩地铁站店_原始凭证!$C$3</definedName>
+    <definedName name="服务门店" localSheetId="0">浙江杭州滨江中南乐游城店_原始凭证!$B$11</definedName>
+    <definedName name="服务门店">浙江杭州三墩地铁站店_原始凭证!$B$11</definedName>
+    <definedName name="卡上余额" localSheetId="0">浙江杭州滨江中南乐游城店_原始凭证!$D$19</definedName>
+    <definedName name="卡上余额">浙江杭州三墩地铁站店_原始凭证!$D$19</definedName>
+    <definedName name="平台服务费" localSheetId="0">浙江杭州滨江中南乐游城店_原始凭证!$D$18</definedName>
+    <definedName name="平台服务费">浙江杭州三墩地铁站店_原始凭证!$D$18</definedName>
+    <definedName name="区域费率" localSheetId="0">浙江杭州滨江中南乐游城店_原始凭证!$D$12</definedName>
+    <definedName name="区域费率">浙江杭州三墩地铁站店_原始凭证!$D$12</definedName>
+    <definedName name="区域类型" localSheetId="0">浙江杭州滨江中南乐游城店_原始凭证!$D$11</definedName>
+    <definedName name="区域类型">浙江杭州三墩地铁站店_原始凭证!$D$11</definedName>
+    <definedName name="上机时间" localSheetId="0">浙江杭州滨江中南乐游城店_原始凭证!$B$14</definedName>
+    <definedName name="上机时间">浙江杭州三墩地铁站店_原始凭证!$B$14</definedName>
+    <definedName name="上机时长_分" localSheetId="0">浙江杭州滨江中南乐游城店_原始凭证!$F$15</definedName>
+    <definedName name="上机时长_分">浙江杭州三墩地铁站店_原始凭证!$F$15</definedName>
+    <definedName name="上机时长_秒" localSheetId="0">浙江杭州滨江中南乐游城店_原始凭证!$G$15</definedName>
+    <definedName name="上机时长_秒">浙江杭州三墩地铁站店_原始凭证!$G$15</definedName>
+    <definedName name="上机时长_年" localSheetId="0">浙江杭州滨江中南乐游城店_原始凭证!$B$15</definedName>
+    <definedName name="上机时长_年">浙江杭州三墩地铁站店_原始凭证!$B$15</definedName>
+    <definedName name="上机时长_日" localSheetId="0">浙江杭州滨江中南乐游城店_原始凭证!$D$15</definedName>
+    <definedName name="上机时长_日">浙江杭州三墩地铁站店_原始凭证!$D$15</definedName>
+    <definedName name="上机时长_时" localSheetId="0">浙江杭州滨江中南乐游城店_原始凭证!$E$15</definedName>
+    <definedName name="上机时长_时">浙江杭州三墩地铁站店_原始凭证!$E$15</definedName>
+    <definedName name="上机时长_月" localSheetId="0">浙江杭州滨江中南乐游城店_原始凭证!$C$15</definedName>
+    <definedName name="上机时长_月">浙江杭州三墩地铁站店_原始凭证!$C$15</definedName>
+    <definedName name="上网费用" localSheetId="0">浙江杭州滨江中南乐游城店_原始凭证!$B$18</definedName>
+    <definedName name="上网费用">浙江杭州三墩地铁站店_原始凭证!$B$18</definedName>
+    <definedName name="下机时间" localSheetId="0">浙江杭州滨江中南乐游城店_原始凭证!$B$16</definedName>
+    <definedName name="下机时间">浙江杭州三墩地铁站店_原始凭证!$B$16</definedName>
+    <definedName name="用户卡号" localSheetId="0">浙江杭州滨江中南乐游城店_原始凭证!$B$1</definedName>
+    <definedName name="用户卡号">浙江杭州三墩地铁站店_原始凭证!$B$1</definedName>
+    <definedName name="用户姓名" localSheetId="0">浙江杭州滨江中南乐游城店_原始凭证!$D$1</definedName>
+    <definedName name="用户姓名">浙江杭州三墩地铁站店_原始凭证!$D$1</definedName>
+    <definedName name="鱼乐卡等级" localSheetId="0">浙江杭州滨江中南乐游城店_原始凭证!$F$11</definedName>
+    <definedName name="鱼乐卡等级">浙江杭州三墩地铁站店_原始凭证!$F$11</definedName>
+    <definedName name="鱼乐卡权益" localSheetId="0">浙江杭州滨江中南乐游城店_原始凭证!$F$18</definedName>
+    <definedName name="鱼乐卡权益">浙江杭州三墩地铁站店_原始凭证!$F$18</definedName>
+    <definedName name="鱼乐卡折扣" localSheetId="0">浙江杭州滨江中南乐游城店_原始凭证!$F$12</definedName>
+    <definedName name="鱼乐卡折扣">浙江杭州三墩地铁站店_原始凭证!$F$12</definedName>
+    <definedName name="总金额" localSheetId="0">浙江杭州滨江中南乐游城店_原始凭证!$F$1</definedName>
+    <definedName name="总金额">浙江杭州三墩地铁站店_原始凭证!$F$1</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -838,7 +838,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="2">
-        <v>2372</v>
+        <v>2882</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>6</v>

--- a/网鱼计费系统.xlsx
+++ b/网鱼计费系统.xlsx
@@ -216,10 +216,10 @@
   </si>
   <si>
     <t>高端单人包</t>
-  </si>
-  <si>
-    <t>高端单人包</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>高端大厅</t>
   </si>
 </sst>
 </file>
@@ -661,9 +661,7 @@
   <cols>
     <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -684,7 +682,7 @@
         <v>26</v>
       </c>
       <c r="F1" s="19">
-        <v>108.43</v>
+        <v>89.73</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -749,7 +747,7 @@
         <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -824,7 +822,7 @@
         <v>5</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>31</v>
@@ -845,7 +843,7 @@
       </c>
       <c r="D12" s="2">
         <f>IF(OR(WEEKDAY(下机时间)-1=5,WEEKDAY(下机时间)-1=6,WEEKDAY(下机时间)-1=0),IF(鱼乐卡等级="普通",HLOOKUP(区域类型,C6:G9,2,0),HLOOKUP(区域类型,C6:G9,4,0)),IF(鱼乐卡等级="普通",HLOOKUP(区域类型,C6:G9,2,0),HLOOKUP(区域类型,C6:G9,3,0)))</f>
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>32</v>
@@ -861,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="17">
-        <v>45453.467997685184</v>
+        <v>45454.382789351854</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -883,10 +881,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="11">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G15" s="12">
         <v>59</v>
@@ -898,7 +896,7 @@
       </c>
       <c r="B16" s="2" t="str">
         <f>CONCATENATE(TEXT(DATE(YEAR(上机时间)+上机时长_年,MONTH(上机时间)+上机时长_月,DAY(上机时间)+上机时长_日),"yyyy-mm-dd")," ",TEXT(TIME(HOUR(上机时间)+上机时长_时,MINUTE(上机时间)+上机时长_分,SECOND(上机时间)+上机时长_秒),"hh:mm:ss"))</f>
-        <v>2024-06-10 12:55:54</v>
+        <v>2024-06-11 09:33:12</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -915,21 +913,21 @@
       </c>
       <c r="B18" s="4">
         <f>TEXT(下机时间-上机时间,"[ss]")/3600*区域费率+服务费率</f>
-        <v>27.295555555555556</v>
+        <v>1.5655555555555556</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="4">
         <f>上网费用*服务费率</f>
-        <v>2.7295555555555557</v>
+        <v>0.15655555555555556</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="14">
         <f>-(上网费用-(上网费用*鱼乐卡折扣))</f>
-        <v>-1.3647777777777783</v>
+        <v>-7.827777777777789E-2</v>
       </c>
       <c r="G18" s="13"/>
     </row>
@@ -939,14 +937,14 @@
       </c>
       <c r="B19" s="19">
         <f>上网费用+平台服务费+鱼乐卡权益</f>
-        <v>28.660333333333334</v>
+        <v>1.6438333333333333</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="19">
         <f>总金额-本次消费</f>
-        <v>79.769666666666666</v>
+        <v>88.086166666666671</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
@@ -959,7 +957,7 @@
   </sheetData>
   <dataConsolidate link="1"/>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F11">
       <formula1>$C$4:$F$4</formula1>
     </dataValidation>
@@ -968,10 +966,13 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"宋体,常规"&amp;12&amp;A</oddHeader>
   </headerFooter>
+  <ignoredErrors>
+    <ignoredError sqref="B1" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -984,11 +985,8 @@
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="11.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="7" width="11.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1009,7 +1007,7 @@
         <v>26</v>
       </c>
       <c r="F1" s="19">
-        <v>108.43</v>
+        <v>89.73</v>
       </c>
       <c r="G1" s="2"/>
     </row>
@@ -1188,7 +1186,7 @@
         <v>0</v>
       </c>
       <c r="B14" s="17">
-        <v>45453.467997685184</v>
+        <v>45454.382789351854</v>
       </c>
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
@@ -1210,10 +1208,10 @@
         <v>0</v>
       </c>
       <c r="E15" s="10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F15" s="11">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="G15" s="12">
         <v>59</v>
@@ -1225,7 +1223,7 @@
       </c>
       <c r="B16" s="2" t="str">
         <f>CONCATENATE(TEXT(DATE(YEAR(上机时间)+上机时长_年,MONTH(上机时间)+上机时长_月,DAY(上机时间)+上机时长_日),"yyyy-mm-dd")," ",TEXT(TIME(HOUR(上机时间)+上机时长_时,MINUTE(上机时间)+上机时长_分,SECOND(上机时间)+上机时长_秒),"hh:mm:ss"))</f>
-        <v>2024-06-10 12:55:54</v>
+        <v>2024-06-11 09:33:12</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1242,21 +1240,21 @@
       </c>
       <c r="B18" s="4">
         <f>TEXT(下机时间-上机时间,"[ss]")/3600*区域费率+服务费率</f>
-        <v>10.298333333333332</v>
+        <v>2.2983333333333333</v>
       </c>
       <c r="C18" s="13" t="s">
         <v>29</v>
       </c>
       <c r="D18" s="4">
         <f>上网费用*服务费率</f>
-        <v>1.0298333333333332</v>
+        <v>0.22983333333333333</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>30</v>
       </c>
       <c r="F18" s="14">
         <f>-(上网费用-(上网费用*鱼乐卡折扣))</f>
-        <v>-0.51491666666666625</v>
+        <v>-0.11491666666666678</v>
       </c>
       <c r="G18" s="13"/>
     </row>
@@ -1266,14 +1264,14 @@
       </c>
       <c r="B19" s="19">
         <f>上网费用+平台服务费+鱼乐卡权益</f>
-        <v>10.813249999999998</v>
+        <v>2.4132499999999997</v>
       </c>
       <c r="C19" s="18" t="s">
         <v>27</v>
       </c>
       <c r="D19" s="19">
         <f>总金额-本次消费</f>
-        <v>97.61675000000001</v>
+        <v>87.316749999999999</v>
       </c>
       <c r="E19" s="16"/>
       <c r="F19" s="16"/>
@@ -1295,7 +1293,7 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.78740157480314965" right="0.78740157480314965" top="0.78740157480314965" bottom="0.78740157480314965" header="0.39370078740157483" footer="0.39370078740157483"/>
-  <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="85" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;L&amp;"宋体,常规"&amp;12&amp;A</oddHeader>
   </headerFooter>
